--- a/Docs/Résultats/Résultats_03_11_15.xlsx
+++ b/Docs/Résultats/Résultats_03_11_15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenTab\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenTab\Docs\Résultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Titre</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>N/D</t>
+  </si>
+  <si>
+    <t>Nombre de notes</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -223,11 +226,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -261,6 +288,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,27 +573,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -572,29 +605,34 @@
       <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -607,28 +645,36 @@
       <c r="D2" s="13">
         <v>8</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="3">
+        <v>21</v>
+      </c>
+      <c r="F2" s="23">
         <v>4.7619047619047603E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="26">
         <v>4.7619047619047603E-2</v>
       </c>
-      <c r="G2" s="5">
-        <f>100%-(E2)-(F2)</f>
+      <c r="H2" s="24">
+        <f>100%-(F2)-(G2)</f>
         <v>0.90476190476190488</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
+        <f>H2*E2</f>
+        <v>19.000000000000004</v>
+      </c>
+      <c r="J2" s="4">
         <v>0.631579</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>0.57889999999999997</v>
       </c>
-      <c r="J2" s="23">
+      <c r="L2" s="23">
         <v>0.31569999999999998</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -641,30 +687,38 @@
       <c r="D3" s="13">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G7" si="0">100%-(E3)-(F3)</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H7" si="0">100%-(F3)-(G3)</f>
         <v>0.9375</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I7" si="1">H3*E3</f>
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -677,30 +731,38 @@
       <c r="D4" s="13">
         <v>16</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="3">
+        <v>38</v>
+      </c>
+      <c r="F4" s="15">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5.2631578947368397E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>0.94736842105263164</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -713,30 +775,38 @@
       <c r="D5" s="13">
         <v>26</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="25">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>31.999999999999996</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -749,30 +819,38 @@
       <c r="D6" s="13">
         <v>30</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="25">
+        <v>47</v>
+      </c>
+      <c r="F6" s="15">
         <v>0.29787234042553201</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>0.65957446808510634</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>30.999999999999996</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -785,33 +863,110 @@
       <c r="D7" s="14">
         <v>35</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="9">
+        <v>91</v>
+      </c>
+      <c r="F7" s="17">
         <v>0.14285714285714302</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>6.5934065934065908E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>0.79120879120879106</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>71.999999999999986</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="21"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="21">
+        <f>AVERAGE(F2:F7)</f>
+        <v>0.11055808848362043</v>
+      </c>
+      <c r="G8" s="21">
+        <f>AVERAGE(G2:G7)</f>
+        <v>4.9372980664973941E-2</v>
+      </c>
+      <c r="H8" s="21">
+        <f>SUM(I2:I7)/SUM(E2:E7)</f>
+        <v>0.81027667984189722</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:G8 L2:L8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.25"/>
+        <cfvo type="num" val="0.5"/>
+        <color rgb="FF92D050"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N7 I8 H2:H7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.65"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.65"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
